--- a/Data/072018/nhanvien.xlsx
+++ b/Data/072018/nhanvien.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B7EA79A1-D1F5-4B93-8540-661E159EDB8F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3AE887-7F3C-4F8F-B635-AB6EE1D7C46E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
